--- a/GLA affordable housing data.xlsx
+++ b/GLA affordable housing data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Evidence base\l. New supply\Data Sources\GLA (and HCA pre-2012) affordable housing statistics\General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greaterlondonauthority.sharepoint.com/sites/HL_HOU_Policy/Shared Documents/Analysis team/Training/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DE745C-C09E-4676-8020-CF191EC71279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{14DE745C-C09E-4676-8020-CF191EC71279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2A2141-8385-459C-B92B-3961C066BAF7}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-30" windowWidth="38460" windowHeight="21060" tabRatio="644" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="16" r:id="rId1"/>
@@ -26,10 +26,10 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Table 1 - Programme &amp; Tenure'!$77:$78</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Table 2 - All Programmes by LA'!$195:$196</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="JJennings - Personal View" guid="{B0A21F1C-C6CC-4B50-9170-27C8BF2BA8EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="747" tabRatio="856" activeSheetId="3"/>
     <customWorkbookView name="NaMiah - Personal View" guid="{ED5B8F75-7017-42E0-A934-617ABDF79CB7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="773" tabRatio="856" activeSheetId="4"/>
-    <customWorkbookView name="JJennings - Personal View" guid="{B0A21F1C-C6CC-4B50-9170-27C8BF2BA8EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="747" tabRatio="856" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1153,9 +1153,6 @@
     <t>Affordable Tenure TBC</t>
   </si>
   <si>
-    <t>Total Affordable Starts</t>
-  </si>
-  <si>
     <t>Open Market</t>
   </si>
   <si>
@@ -1167,16 +1164,19 @@
   <si>
     <t>Not specified</t>
   </si>
+  <si>
+    <t>Total Affordable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
-    <numFmt numFmtId="183" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -1730,7 +1730,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1832,7 +1832,7 @@
     <xf numFmtId="41" fontId="39" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="22" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1847,10 +1847,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="11" fillId="0" borderId="3" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1972,6 +1972,9 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="17" fontId="46" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1979,9 +1982,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1992,44 +1992,44 @@
     </xf>
   </cellXfs>
   <cellStyles count="39">
-    <cellStyle name="Comma 2" xfId="1"/>
-    <cellStyle name="Comma 2 2" xfId="2"/>
-    <cellStyle name="Comma 2 3" xfId="3"/>
-    <cellStyle name="Comma 3" xfId="4"/>
-    <cellStyle name="Comma 4" xfId="5"/>
-    <cellStyle name="Comma 5" xfId="6"/>
-    <cellStyle name="Comma 6" xfId="7"/>
-    <cellStyle name="Comma 7" xfId="8"/>
-    <cellStyle name="Comma 8" xfId="9"/>
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 8" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
-    <cellStyle name="Hyperlink 2 2" xfId="12"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="13"/>
-    <cellStyle name="Normal 11" xfId="14"/>
-    <cellStyle name="Normal 12" xfId="15"/>
-    <cellStyle name="Normal 19" xfId="16"/>
-    <cellStyle name="Normal 2" xfId="17"/>
-    <cellStyle name="Normal 2 2" xfId="18"/>
-    <cellStyle name="Normal 2 2 2" xfId="19"/>
-    <cellStyle name="Normal 2 3" xfId="20"/>
-    <cellStyle name="Normal 2 3 2" xfId="21"/>
-    <cellStyle name="Normal 3" xfId="22"/>
-    <cellStyle name="Normal 3 2" xfId="23"/>
-    <cellStyle name="Normal 3 3" xfId="24"/>
-    <cellStyle name="Normal 3 4" xfId="25"/>
-    <cellStyle name="Normal 4" xfId="26"/>
-    <cellStyle name="Normal 4 2" xfId="27"/>
-    <cellStyle name="Normal 4 3" xfId="28"/>
-    <cellStyle name="Normal 4 4" xfId="29"/>
-    <cellStyle name="Normal 4 5" xfId="30"/>
-    <cellStyle name="Normal 5" xfId="31"/>
-    <cellStyle name="Normal 5 2" xfId="32"/>
-    <cellStyle name="Normal 6" xfId="33"/>
-    <cellStyle name="Normal 6 2" xfId="34"/>
-    <cellStyle name="Normal 7" xfId="35"/>
-    <cellStyle name="Normal 8" xfId="36"/>
-    <cellStyle name="Normal 9" xfId="37"/>
+    <cellStyle name="Normal 10" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 11" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 12" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 19" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 2 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 3 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 4 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 4 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 4 5" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 5" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 7" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 8" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 9" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Percent" xfId="38" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
@@ -2380,7 +2380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2428,21 +2428,21 @@
       <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" ht="57.75" customHeight="1">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="109" t="s">
@@ -2494,21 +2494,21 @@
       <c r="M6" s="113"/>
     </row>
     <row r="7" spans="1:13" ht="15.75">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="140" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="116" t="s">
@@ -2563,249 +2563,249 @@
       <c r="A11" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
     </row>
     <row r="12" spans="1:13" ht="72" customHeight="1">
       <c r="A12" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
     </row>
     <row r="13" spans="1:13" ht="73.5" customHeight="1">
       <c r="A13" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
     </row>
     <row r="14" spans="1:13" ht="26.1" customHeight="1">
       <c r="A14" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="140"/>
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1">
       <c r="A15" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
     </row>
     <row r="16" spans="1:13" ht="56.55" customHeight="1">
       <c r="A16" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
     </row>
     <row r="17" spans="1:14" ht="61.35" customHeight="1">
       <c r="A17" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="142" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
     </row>
     <row r="18" spans="1:14" ht="40.35" customHeight="1">
       <c r="A18" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
     </row>
     <row r="19" spans="1:14" ht="88.5" customHeight="1">
       <c r="A19" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="143" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
       <c r="N19" s="122"/>
     </row>
     <row r="20" spans="1:14" ht="26.1" customHeight="1">
       <c r="A20" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
     </row>
     <row r="21" spans="1:14" ht="21" customHeight="1">
       <c r="A21" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
     </row>
     <row r="22" spans="1:14" ht="40.5" customHeight="1">
       <c r="A22" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="142" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
     </row>
     <row r="23" spans="1:14" ht="56.85" customHeight="1">
       <c r="A23" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="142" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
     </row>
     <row r="24" spans="1:14" ht="11.1" customHeight="1">
       <c r="A24" s="118"/>
@@ -2844,65 +2844,65 @@
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="119"/>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="119"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="119"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
     </row>
     <row r="30" spans="1:14" ht="44.25" customHeight="1">
       <c r="A30" s="119"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="119"/>
@@ -4074,6 +4074,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B27:M30"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B23:M23"/>
     <mergeCell ref="B16:M16"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="B11:M11"/>
@@ -4082,19 +4090,11 @@
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="B15:M15"/>
     <mergeCell ref="A7:M7"/>
-    <mergeCell ref="B27:M30"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B23:M23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3" location="right-to-buy-sales" display="right-to-buy-sales"/>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" location="right-to-buy-sales" display="right-to-buy-sales" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId4"/>
@@ -4102,7 +4102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB307"/>
   <sheetViews>
@@ -15078,14 +15078,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ED5B8F75-7017-42E0-A934-617ABDF79CB7}" showPageBreaks="1" fitToPage="1" showRuler="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <customSheetView guid="{B0A21F1C-C6CC-4B50-9170-27C8BF2BA8EE}" fitToPage="1" showRuler="0">
+      <selection activeCell="C6" sqref="C6:I6"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="8" scale="94" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{B0A21F1C-C6CC-4B50-9170-27C8BF2BA8EE}" fitToPage="1" showRuler="0">
-      <selection activeCell="C6" sqref="C6:I6"/>
+    <customSheetView guid="{ED5B8F75-7017-42E0-A934-617ABDF79CB7}" showPageBreaks="1" fitToPage="1" showRuler="0">
+      <selection activeCell="B21" sqref="B21"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="8" scale="94" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
@@ -15105,7 +15105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y589"/>
   <sheetViews>
@@ -46273,10 +46273,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K928"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
@@ -46306,18 +46308,18 @@
         <v>234</v>
       </c>
       <c r="I1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>236</v>
-      </c>
-      <c r="K1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
         <v>218</v>
@@ -46354,7 +46356,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>218</v>
@@ -46391,7 +46393,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>218</v>
@@ -46428,7 +46430,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>218</v>
@@ -46465,7 +46467,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>218</v>
@@ -46502,7 +46504,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
         <v>218</v>
@@ -46539,7 +46541,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>218</v>
@@ -46576,7 +46578,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>218</v>
@@ -46613,7 +46615,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>218</v>
@@ -46650,7 +46652,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
         <v>218</v>
@@ -46687,7 +46689,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
         <v>218</v>
@@ -46724,7 +46726,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
         <v>218</v>
@@ -46761,7 +46763,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
         <v>218</v>
@@ -46798,7 +46800,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
         <v>218</v>
@@ -46835,7 +46837,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
         <v>218</v>
@@ -46872,7 +46874,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
         <v>218</v>
@@ -46909,7 +46911,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
         <v>218</v>
@@ -46946,7 +46948,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s">
         <v>218</v>
@@ -46983,7 +46985,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
         <v>218</v>
@@ -47020,7 +47022,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
         <v>218</v>
@@ -47057,7 +47059,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
         <v>218</v>
@@ -47094,7 +47096,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
         <v>218</v>
@@ -47131,7 +47133,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
         <v>218</v>
@@ -47168,7 +47170,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
         <v>218</v>
@@ -47205,7 +47207,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
         <v>218</v>
@@ -47242,7 +47244,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
         <v>218</v>
@@ -47279,7 +47281,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
         <v>218</v>
@@ -47316,7 +47318,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
         <v>218</v>
@@ -47353,7 +47355,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
         <v>218</v>
@@ -47390,7 +47392,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s">
         <v>218</v>
@@ -47427,7 +47429,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s">
         <v>218</v>
@@ -47464,7 +47466,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s">
         <v>218</v>
@@ -47501,7 +47503,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
         <v>218</v>
@@ -47538,7 +47540,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
         <v>206</v>
@@ -47575,7 +47577,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" t="s">
         <v>206</v>
@@ -47612,7 +47614,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
         <v>206</v>
@@ -47649,7 +47651,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
         <v>206</v>
@@ -47686,7 +47688,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
         <v>206</v>
@@ -47723,7 +47725,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
         <v>206</v>
@@ -47760,7 +47762,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s">
         <v>206</v>
@@ -47797,7 +47799,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
         <v>206</v>
@@ -47834,7 +47836,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
         <v>206</v>
@@ -47871,7 +47873,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" t="s">
         <v>206</v>
@@ -47908,7 +47910,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
         <v>206</v>
@@ -47945,7 +47947,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>206</v>
@@ -47982,7 +47984,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
         <v>206</v>
@@ -48019,7 +48021,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
         <v>206</v>
@@ -48056,7 +48058,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
         <v>206</v>
@@ -48093,7 +48095,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
         <v>206</v>
@@ -48130,7 +48132,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B51" t="s">
         <v>206</v>
@@ -48167,7 +48169,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" t="s">
         <v>206</v>
@@ -48204,7 +48206,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
         <v>206</v>
@@ -48241,7 +48243,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" t="s">
         <v>206</v>
@@ -48278,7 +48280,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
         <v>206</v>
@@ -48315,7 +48317,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B56" t="s">
         <v>206</v>
@@ -48352,7 +48354,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s">
         <v>206</v>
@@ -48389,7 +48391,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s">
         <v>206</v>
@@ -48426,7 +48428,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
         <v>206</v>
@@ -48463,7 +48465,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s">
         <v>206</v>
@@ -48500,7 +48502,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s">
         <v>206</v>
@@ -48537,7 +48539,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s">
         <v>206</v>
@@ -48574,7 +48576,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
         <v>206</v>
@@ -48611,7 +48613,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
         <v>206</v>
@@ -48648,7 +48650,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s">
         <v>206</v>
@@ -48685,7 +48687,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
         <v>206</v>
@@ -48722,7 +48724,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
         <v>206</v>
@@ -48759,7 +48761,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" t="s">
         <v>177</v>
@@ -48796,7 +48798,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
         <v>177</v>
@@ -48833,7 +48835,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s">
         <v>177</v>
@@ -48870,7 +48872,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B71" t="s">
         <v>177</v>
@@ -48907,7 +48909,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
         <v>177</v>
@@ -48944,7 +48946,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B73" t="s">
         <v>177</v>
@@ -48981,7 +48983,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" t="s">
         <v>177</v>
@@ -49018,7 +49020,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" t="s">
         <v>177</v>
@@ -49055,7 +49057,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
         <v>177</v>
@@ -49092,7 +49094,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
         <v>177</v>
@@ -49129,7 +49131,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
         <v>177</v>
@@ -49166,7 +49168,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s">
         <v>177</v>
@@ -49203,7 +49205,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
         <v>177</v>
@@ -49240,7 +49242,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
         <v>177</v>
@@ -49277,7 +49279,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s">
         <v>177</v>
@@ -49314,7 +49316,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B83" t="s">
         <v>177</v>
@@ -49351,7 +49353,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
         <v>177</v>
@@ -49388,7 +49390,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B85" t="s">
         <v>177</v>
@@ -49425,7 +49427,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
         <v>177</v>
@@ -49462,7 +49464,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
         <v>177</v>
@@ -49499,7 +49501,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B88" t="s">
         <v>177</v>
@@ -49536,7 +49538,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B89" t="s">
         <v>177</v>
@@ -49573,7 +49575,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
         <v>177</v>
@@ -49610,7 +49612,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s">
         <v>177</v>
@@ -49647,7 +49649,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B92" t="s">
         <v>177</v>
@@ -49684,7 +49686,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B93" t="s">
         <v>177</v>
@@ -49721,7 +49723,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B94" t="s">
         <v>177</v>
@@ -49758,7 +49760,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B95" t="s">
         <v>177</v>
@@ -49795,7 +49797,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B96" t="s">
         <v>177</v>
@@ -49832,7 +49834,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B97" t="s">
         <v>177</v>
@@ -49869,7 +49871,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B98" t="s">
         <v>177</v>
@@ -49906,7 +49908,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B99" t="s">
         <v>177</v>
@@ -49943,7 +49945,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B100" t="s">
         <v>177</v>
@@ -49980,13 +49982,13 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s">
         <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -50017,7 +50019,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B102" t="s">
         <v>164</v>
@@ -50054,7 +50056,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B103" t="s">
         <v>164</v>
@@ -50091,7 +50093,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B104" t="s">
         <v>164</v>
@@ -50128,7 +50130,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B105" t="s">
         <v>164</v>
@@ -50165,7 +50167,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B106" t="s">
         <v>164</v>
@@ -50202,7 +50204,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B107" t="s">
         <v>164</v>
@@ -50239,7 +50241,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s">
         <v>164</v>
@@ -50276,7 +50278,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B109" t="s">
         <v>164</v>
@@ -50313,7 +50315,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B110" t="s">
         <v>164</v>
@@ -50350,7 +50352,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B111" t="s">
         <v>164</v>
@@ -50387,7 +50389,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B112" t="s">
         <v>164</v>
@@ -50424,7 +50426,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s">
         <v>164</v>
@@ -50461,7 +50463,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B114" t="s">
         <v>164</v>
@@ -50498,7 +50500,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s">
         <v>164</v>
@@ -50535,7 +50537,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B116" t="s">
         <v>164</v>
@@ -50572,7 +50574,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" t="s">
         <v>164</v>
@@ -50609,7 +50611,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
         <v>164</v>
@@ -50646,7 +50648,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" t="s">
         <v>164</v>
@@ -50683,7 +50685,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
         <v>164</v>
@@ -50720,7 +50722,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
         <v>164</v>
@@ -50757,7 +50759,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s">
         <v>164</v>
@@ -50794,7 +50796,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B123" t="s">
         <v>164</v>
@@ -50831,7 +50833,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B124" t="s">
         <v>164</v>
@@ -50868,7 +50870,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B125" t="s">
         <v>164</v>
@@ -50905,7 +50907,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B126" t="s">
         <v>164</v>
@@ -50942,7 +50944,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B127" t="s">
         <v>164</v>
@@ -50979,7 +50981,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B128" t="s">
         <v>164</v>
@@ -51016,7 +51018,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B129" t="s">
         <v>164</v>
@@ -51053,7 +51055,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B130" t="s">
         <v>164</v>
@@ -51090,7 +51092,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B131" t="s">
         <v>164</v>
@@ -51127,7 +51129,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
         <v>164</v>
@@ -51164,7 +51166,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B133" t="s">
         <v>164</v>
@@ -51201,7 +51203,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B134" t="s">
         <v>164</v>
@@ -51238,7 +51240,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
@@ -51275,7 +51277,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
@@ -51312,7 +51314,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B137" t="s">
         <v>144</v>
@@ -51349,7 +51351,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
@@ -51386,7 +51388,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
@@ -51423,7 +51425,7 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B140" t="s">
         <v>144</v>
@@ -51460,7 +51462,7 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
         <v>144</v>
@@ -51497,7 +51499,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B142" t="s">
         <v>144</v>
@@ -51534,7 +51536,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -51571,7 +51573,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
@@ -51608,7 +51610,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
@@ -51645,7 +51647,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
@@ -51682,7 +51684,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B147" t="s">
         <v>144</v>
@@ -51719,7 +51721,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B148" t="s">
         <v>144</v>
@@ -51756,7 +51758,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B149" t="s">
         <v>144</v>
@@ -51793,7 +51795,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B150" t="s">
         <v>144</v>
@@ -51830,7 +51832,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B151" t="s">
         <v>144</v>
@@ -51867,7 +51869,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B152" t="s">
         <v>144</v>
@@ -51904,7 +51906,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B153" t="s">
         <v>144</v>
@@ -51941,7 +51943,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B154" t="s">
         <v>144</v>
@@ -51978,7 +51980,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B155" t="s">
         <v>144</v>
@@ -52015,7 +52017,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B156" t="s">
         <v>144</v>
@@ -52052,7 +52054,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B157" t="s">
         <v>144</v>
@@ -52089,7 +52091,7 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B158" t="s">
         <v>144</v>
@@ -52126,7 +52128,7 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B159" t="s">
         <v>144</v>
@@ -52163,7 +52165,7 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B160" t="s">
         <v>144</v>
@@ -52200,7 +52202,7 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B161" t="s">
         <v>144</v>
@@ -52237,7 +52239,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B162" t="s">
         <v>144</v>
@@ -52274,7 +52276,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B163" t="s">
         <v>144</v>
@@ -52311,7 +52313,7 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
         <v>144</v>
@@ -52348,7 +52350,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B165" t="s">
         <v>144</v>
@@ -52385,7 +52387,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B166" t="s">
         <v>144</v>
@@ -52422,7 +52424,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B167" t="s">
         <v>144</v>
@@ -52459,13 +52461,13 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B168" t="s">
         <v>144</v>
       </c>
       <c r="C168" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -52496,7 +52498,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B169" t="s">
         <v>132</v>
@@ -52533,7 +52535,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B170" t="s">
         <v>132</v>
@@ -52570,7 +52572,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B171" t="s">
         <v>132</v>
@@ -52607,7 +52609,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B172" t="s">
         <v>132</v>
@@ -52644,7 +52646,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B173" t="s">
         <v>132</v>
@@ -52681,7 +52683,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B174" t="s">
         <v>132</v>
@@ -52718,7 +52720,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B175" t="s">
         <v>132</v>
@@ -52755,7 +52757,7 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B176" t="s">
         <v>132</v>
@@ -52792,7 +52794,7 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B177" t="s">
         <v>132</v>
@@ -52829,7 +52831,7 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B178" t="s">
         <v>132</v>
@@ -52866,7 +52868,7 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B179" t="s">
         <v>132</v>
@@ -52903,7 +52905,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B180" t="s">
         <v>132</v>
@@ -52940,7 +52942,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B181" t="s">
         <v>132</v>
@@ -52977,7 +52979,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B182" t="s">
         <v>132</v>
@@ -53014,7 +53016,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B183" t="s">
         <v>132</v>
@@ -53051,7 +53053,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B184" t="s">
         <v>132</v>
@@ -53088,7 +53090,7 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B185" t="s">
         <v>132</v>
@@ -53125,7 +53127,7 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B186" t="s">
         <v>132</v>
@@ -53162,7 +53164,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B187" t="s">
         <v>132</v>
@@ -53199,7 +53201,7 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B188" t="s">
         <v>132</v>
@@ -53236,7 +53238,7 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B189" t="s">
         <v>132</v>
@@ -53273,7 +53275,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B190" t="s">
         <v>132</v>
@@ -53310,7 +53312,7 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B191" t="s">
         <v>132</v>
@@ -53347,7 +53349,7 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B192" t="s">
         <v>132</v>
@@ -53384,7 +53386,7 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
         <v>132</v>
@@ -53421,7 +53423,7 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B194" t="s">
         <v>132</v>
@@ -53458,7 +53460,7 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B195" t="s">
         <v>132</v>
@@ -53495,7 +53497,7 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B196" t="s">
         <v>132</v>
@@ -53532,7 +53534,7 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B197" t="s">
         <v>132</v>
@@ -53569,7 +53571,7 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B198" t="s">
         <v>132</v>
@@ -53606,7 +53608,7 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B199" t="s">
         <v>132</v>
@@ -53643,7 +53645,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" t="s">
         <v>132</v>
@@ -53680,7 +53682,7 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B201" t="s">
         <v>132</v>
@@ -53717,7 +53719,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B202" t="s">
         <v>99</v>
@@ -53754,7 +53756,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B203" t="s">
         <v>99</v>
@@ -53791,7 +53793,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B204" t="s">
         <v>99</v>
@@ -53828,7 +53830,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B205" t="s">
         <v>99</v>
@@ -53865,7 +53867,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B206" t="s">
         <v>99</v>
@@ -53902,7 +53904,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B207" t="s">
         <v>99</v>
@@ -53939,7 +53941,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B208" t="s">
         <v>99</v>
@@ -53976,7 +53978,7 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B209" t="s">
         <v>99</v>
@@ -54013,7 +54015,7 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
         <v>99</v>
@@ -54050,7 +54052,7 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B211" t="s">
         <v>99</v>
@@ -54087,7 +54089,7 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B212" t="s">
         <v>99</v>
@@ -54124,7 +54126,7 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B213" t="s">
         <v>99</v>
@@ -54161,7 +54163,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B214" t="s">
         <v>99</v>
@@ -54198,7 +54200,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B215" t="s">
         <v>99</v>
@@ -54235,7 +54237,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B216" t="s">
         <v>99</v>
@@ -54272,7 +54274,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B217" t="s">
         <v>99</v>
@@ -54309,7 +54311,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B218" t="s">
         <v>99</v>
@@ -54346,7 +54348,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B219" t="s">
         <v>99</v>
@@ -54383,7 +54385,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B220" t="s">
         <v>99</v>
@@ -54420,7 +54422,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B221" t="s">
         <v>99</v>
@@ -54457,7 +54459,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B222" t="s">
         <v>99</v>
@@ -54494,7 +54496,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B223" t="s">
         <v>99</v>
@@ -54531,7 +54533,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B224" t="s">
         <v>99</v>
@@ -54568,7 +54570,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B225" t="s">
         <v>99</v>
@@ -54605,7 +54607,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B226" t="s">
         <v>99</v>
@@ -54642,7 +54644,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B227" t="s">
         <v>99</v>
@@ -54679,7 +54681,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B228" t="s">
         <v>99</v>
@@ -54716,7 +54718,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B229" t="s">
         <v>99</v>
@@ -54753,7 +54755,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B230" t="s">
         <v>99</v>
@@ -54790,7 +54792,7 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B231" t="s">
         <v>99</v>
@@ -54827,7 +54829,7 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B232" t="s">
         <v>99</v>
@@ -54864,7 +54866,7 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233" t="s">
         <v>99</v>
@@ -54901,7 +54903,7 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B234" t="s">
         <v>99</v>
@@ -54938,7 +54940,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
         <v>94</v>
@@ -54975,7 +54977,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>94</v>
@@ -55012,7 +55014,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
         <v>94</v>
@@ -55049,7 +55051,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>94</v>
@@ -55086,7 +55088,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>94</v>
@@ -55123,7 +55125,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240" t="s">
         <v>94</v>
@@ -55160,7 +55162,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" t="s">
         <v>94</v>
@@ -55197,7 +55199,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" t="s">
         <v>94</v>
@@ -55234,7 +55236,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243" t="s">
         <v>94</v>
@@ -55271,7 +55273,7 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B244" t="s">
         <v>94</v>
@@ -55308,7 +55310,7 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B245" t="s">
         <v>94</v>
@@ -55345,7 +55347,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B246" t="s">
         <v>94</v>
@@ -55382,7 +55384,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B247" t="s">
         <v>94</v>
@@ -55419,7 +55421,7 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B248" t="s">
         <v>94</v>
@@ -55456,7 +55458,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B249" t="s">
         <v>94</v>
@@ -55493,7 +55495,7 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B250" t="s">
         <v>94</v>
@@ -55530,7 +55532,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B251" t="s">
         <v>94</v>
@@ -55567,7 +55569,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B252" t="s">
         <v>94</v>
@@ -55604,7 +55606,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B253" t="s">
         <v>94</v>
@@ -55641,7 +55643,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B254" t="s">
         <v>94</v>
@@ -55678,7 +55680,7 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B255" t="s">
         <v>94</v>
@@ -55715,7 +55717,7 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B256" t="s">
         <v>94</v>
@@ -55752,7 +55754,7 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B257" t="s">
         <v>94</v>
@@ -55790,7 +55792,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B258" t="s">
         <v>94</v>
@@ -55827,7 +55829,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B259" t="s">
         <v>94</v>
@@ -55864,7 +55866,7 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B260" t="s">
         <v>94</v>
@@ -55901,7 +55903,7 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B261" t="s">
         <v>94</v>
@@ -55938,7 +55940,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B262" t="s">
         <v>94</v>
@@ -55975,7 +55977,7 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B263" t="s">
         <v>94</v>
@@ -56012,7 +56014,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B264" t="s">
         <v>94</v>
@@ -56049,7 +56051,7 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B265" t="s">
         <v>94</v>
@@ -56086,7 +56088,7 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B266" t="s">
         <v>94</v>
@@ -56123,7 +56125,7 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B267" t="s">
         <v>94</v>
@@ -56160,7 +56162,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B268" t="s">
         <v>50</v>
@@ -56197,7 +56199,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B269" t="s">
         <v>50</v>
@@ -56234,7 +56236,7 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B270" t="s">
         <v>50</v>
@@ -56271,7 +56273,7 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B271" t="s">
         <v>50</v>
@@ -56308,7 +56310,7 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B272" t="s">
         <v>50</v>
@@ -56345,7 +56347,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B273" t="s">
         <v>50</v>
@@ -56382,7 +56384,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B274" t="s">
         <v>50</v>
@@ -56419,7 +56421,7 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B275" t="s">
         <v>50</v>
@@ -56456,7 +56458,7 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B276" t="s">
         <v>50</v>
@@ -56493,7 +56495,7 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B277" t="s">
         <v>50</v>
@@ -56530,7 +56532,7 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B278" t="s">
         <v>50</v>
@@ -56567,7 +56569,7 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B279" t="s">
         <v>50</v>
@@ -56604,7 +56606,7 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B280" t="s">
         <v>50</v>
@@ -56641,7 +56643,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B281" t="s">
         <v>50</v>
@@ -56678,7 +56680,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B282" t="s">
         <v>50</v>
@@ -56715,7 +56717,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B283" t="s">
         <v>50</v>
@@ -56752,7 +56754,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B284" t="s">
         <v>50</v>
@@ -56789,7 +56791,7 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B285" t="s">
         <v>50</v>
@@ -56826,7 +56828,7 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B286" t="s">
         <v>50</v>
@@ -56863,7 +56865,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B287" t="s">
         <v>50</v>
@@ -56900,7 +56902,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B288" t="s">
         <v>50</v>
@@ -56937,7 +56939,7 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B289" t="s">
         <v>50</v>
@@ -56974,7 +56976,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B290" t="s">
         <v>50</v>
@@ -57011,7 +57013,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B291" t="s">
         <v>50</v>
@@ -57048,7 +57050,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B292" t="s">
         <v>50</v>
@@ -57085,7 +57087,7 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B293" t="s">
         <v>50</v>
@@ -57122,7 +57124,7 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B294" t="s">
         <v>50</v>
@@ -57159,7 +57161,7 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B295" t="s">
         <v>50</v>
@@ -57196,7 +57198,7 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B296" t="s">
         <v>50</v>
@@ -57233,7 +57235,7 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B297" t="s">
         <v>50</v>
@@ -57270,7 +57272,7 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B298" t="s">
         <v>50</v>
@@ -57307,7 +57309,7 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B299" t="s">
         <v>50</v>
@@ -57344,7 +57346,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B300" t="s">
         <v>50</v>
@@ -57381,7 +57383,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B301" t="s">
         <v>47</v>
@@ -57418,7 +57420,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B302" t="s">
         <v>47</v>
@@ -57455,7 +57457,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B303" t="s">
         <v>47</v>
@@ -57492,7 +57494,7 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B304" t="s">
         <v>47</v>
@@ -57529,7 +57531,7 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B305" t="s">
         <v>47</v>
@@ -57566,7 +57568,7 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B306" t="s">
         <v>47</v>
@@ -57603,7 +57605,7 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B307" t="s">
         <v>47</v>
@@ -57640,7 +57642,7 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B308" t="s">
         <v>47</v>
@@ -57677,7 +57679,7 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B309" t="s">
         <v>47</v>
@@ -57714,7 +57716,7 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B310" t="s">
         <v>47</v>
@@ -57751,7 +57753,7 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B311" t="s">
         <v>47</v>
@@ -57788,7 +57790,7 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B312" t="s">
         <v>47</v>
@@ -57825,7 +57827,7 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B313" t="s">
         <v>47</v>
@@ -57862,7 +57864,7 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B314" t="s">
         <v>47</v>
@@ -57899,7 +57901,7 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B315" t="s">
         <v>47</v>
@@ -57936,7 +57938,7 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B316" t="s">
         <v>47</v>
@@ -57973,7 +57975,7 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B317" t="s">
         <v>47</v>
@@ -58010,7 +58012,7 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B318" t="s">
         <v>47</v>
@@ -58047,7 +58049,7 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B319" t="s">
         <v>47</v>
@@ -58084,7 +58086,7 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B320" t="s">
         <v>47</v>
@@ -58121,7 +58123,7 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B321" t="s">
         <v>47</v>
@@ -58158,7 +58160,7 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B322" t="s">
         <v>47</v>
@@ -58195,7 +58197,7 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B323" t="s">
         <v>47</v>
@@ -58232,7 +58234,7 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B324" t="s">
         <v>47</v>
@@ -58269,7 +58271,7 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B325" t="s">
         <v>47</v>
@@ -58306,7 +58308,7 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B326" t="s">
         <v>47</v>
@@ -58343,7 +58345,7 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B327" t="s">
         <v>47</v>
@@ -58380,7 +58382,7 @@
     </row>
     <row r="328" spans="1:11">
       <c r="A328" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B328" t="s">
         <v>47</v>
@@ -58417,7 +58419,7 @@
     </row>
     <row r="329" spans="1:11">
       <c r="A329" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B329" t="s">
         <v>47</v>
@@ -58454,7 +58456,7 @@
     </row>
     <row r="330" spans="1:11">
       <c r="A330" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B330" t="s">
         <v>47</v>
@@ -58491,7 +58493,7 @@
     </row>
     <row r="331" spans="1:11">
       <c r="A331" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B331" t="s">
         <v>47</v>
@@ -58515,7 +58517,7 @@
         <v>0</v>
       </c>
       <c r="I331">
-        <f t="shared" ref="I331:I363" si="17">SUM(D331:G331)</f>
+        <f t="shared" ref="I331:I333" si="17">SUM(D331:G331)</f>
         <v>367</v>
       </c>
       <c r="J331">
@@ -58528,7 +58530,7 @@
     </row>
     <row r="332" spans="1:11">
       <c r="A332" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B332" t="s">
         <v>47</v>
@@ -58565,7 +58567,7 @@
     </row>
     <row r="333" spans="1:11">
       <c r="A333" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B333" t="s">
         <v>47</v>
@@ -58602,7 +58604,7 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B334" t="s">
         <v>46</v>
@@ -58638,7 +58640,7 @@
     </row>
     <row r="335" spans="1:11">
       <c r="A335" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B335" t="s">
         <v>46</v>
@@ -58675,7 +58677,7 @@
     </row>
     <row r="336" spans="1:11">
       <c r="A336" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B336" t="s">
         <v>46</v>
@@ -58712,7 +58714,7 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B337" t="s">
         <v>46</v>
@@ -58749,7 +58751,7 @@
     </row>
     <row r="338" spans="1:11">
       <c r="A338" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B338" t="s">
         <v>46</v>
@@ -58786,7 +58788,7 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B339" t="s">
         <v>46</v>
@@ -58823,7 +58825,7 @@
     </row>
     <row r="340" spans="1:11">
       <c r="A340" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B340" t="s">
         <v>46</v>
@@ -58860,7 +58862,7 @@
     </row>
     <row r="341" spans="1:11">
       <c r="A341" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B341" t="s">
         <v>46</v>
@@ -58897,7 +58899,7 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B342" t="s">
         <v>46</v>
@@ -58934,7 +58936,7 @@
     </row>
     <row r="343" spans="1:11">
       <c r="A343" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B343" t="s">
         <v>46</v>
@@ -58971,7 +58973,7 @@
     </row>
     <row r="344" spans="1:11">
       <c r="A344" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B344" t="s">
         <v>46</v>
@@ -59008,7 +59010,7 @@
     </row>
     <row r="345" spans="1:11">
       <c r="A345" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B345" t="s">
         <v>46</v>
@@ -59045,7 +59047,7 @@
     </row>
     <row r="346" spans="1:11">
       <c r="A346" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B346" t="s">
         <v>46</v>
@@ -59082,7 +59084,7 @@
     </row>
     <row r="347" spans="1:11">
       <c r="A347" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B347" t="s">
         <v>46</v>
@@ -59119,7 +59121,7 @@
     </row>
     <row r="348" spans="1:11">
       <c r="A348" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B348" t="s">
         <v>46</v>
@@ -59156,7 +59158,7 @@
     </row>
     <row r="349" spans="1:11">
       <c r="A349" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B349" t="s">
         <v>46</v>
@@ -59193,7 +59195,7 @@
     </row>
     <row r="350" spans="1:11">
       <c r="A350" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B350" t="s">
         <v>46</v>
@@ -59230,7 +59232,7 @@
     </row>
     <row r="351" spans="1:11">
       <c r="A351" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B351" t="s">
         <v>46</v>
@@ -59267,7 +59269,7 @@
     </row>
     <row r="352" spans="1:11">
       <c r="A352" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B352" t="s">
         <v>46</v>
@@ -59304,7 +59306,7 @@
     </row>
     <row r="353" spans="1:11">
       <c r="A353" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B353" t="s">
         <v>46</v>
@@ -59341,7 +59343,7 @@
     </row>
     <row r="354" spans="1:11">
       <c r="A354" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B354" t="s">
         <v>46</v>
@@ -59378,7 +59380,7 @@
     </row>
     <row r="355" spans="1:11">
       <c r="A355" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B355" t="s">
         <v>46</v>
@@ -59415,7 +59417,7 @@
     </row>
     <row r="356" spans="1:11">
       <c r="A356" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B356" t="s">
         <v>46</v>
@@ -59452,7 +59454,7 @@
     </row>
     <row r="357" spans="1:11">
       <c r="A357" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B357" t="s">
         <v>46</v>
@@ -59489,7 +59491,7 @@
     </row>
     <row r="358" spans="1:11">
       <c r="A358" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B358" t="s">
         <v>46</v>
@@ -59526,7 +59528,7 @@
     </row>
     <row r="359" spans="1:11">
       <c r="A359" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B359" t="s">
         <v>46</v>
@@ -59563,7 +59565,7 @@
     </row>
     <row r="360" spans="1:11">
       <c r="A360" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B360" t="s">
         <v>46</v>
@@ -59600,7 +59602,7 @@
     </row>
     <row r="361" spans="1:11">
       <c r="A361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B361" t="s">
         <v>46</v>
@@ -59637,7 +59639,7 @@
     </row>
     <row r="362" spans="1:11">
       <c r="A362" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B362" t="s">
         <v>46</v>
@@ -59674,7 +59676,7 @@
     </row>
     <row r="363" spans="1:11">
       <c r="A363" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B363" t="s">
         <v>46</v>
@@ -59711,7 +59713,7 @@
     </row>
     <row r="364" spans="1:11">
       <c r="A364" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B364" t="s">
         <v>46</v>
@@ -59748,7 +59750,7 @@
     </row>
     <row r="365" spans="1:11">
       <c r="A365" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B365" t="s">
         <v>46</v>
@@ -59785,7 +59787,7 @@
     </row>
     <row r="366" spans="1:11">
       <c r="A366" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B366" t="s">
         <v>46</v>
@@ -59822,7 +59824,7 @@
     </row>
     <row r="367" spans="1:11">
       <c r="A367" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B367" t="s">
         <v>45</v>
@@ -59859,7 +59861,7 @@
     </row>
     <row r="368" spans="1:11">
       <c r="A368" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B368" t="s">
         <v>45</v>
@@ -59896,7 +59898,7 @@
     </row>
     <row r="369" spans="1:11">
       <c r="A369" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B369" t="s">
         <v>45</v>
@@ -59933,7 +59935,7 @@
     </row>
     <row r="370" spans="1:11">
       <c r="A370" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B370" t="s">
         <v>45</v>
@@ -59970,7 +59972,7 @@
     </row>
     <row r="371" spans="1:11">
       <c r="A371" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B371" t="s">
         <v>45</v>
@@ -60007,7 +60009,7 @@
     </row>
     <row r="372" spans="1:11">
       <c r="A372" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B372" t="s">
         <v>45</v>
@@ -60044,7 +60046,7 @@
     </row>
     <row r="373" spans="1:11">
       <c r="A373" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B373" t="s">
         <v>45</v>
@@ -60081,7 +60083,7 @@
     </row>
     <row r="374" spans="1:11">
       <c r="A374" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B374" t="s">
         <v>45</v>
@@ -60118,7 +60120,7 @@
     </row>
     <row r="375" spans="1:11">
       <c r="A375" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B375" t="s">
         <v>45</v>
@@ -60155,7 +60157,7 @@
     </row>
     <row r="376" spans="1:11">
       <c r="A376" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B376" t="s">
         <v>45</v>
@@ -60192,7 +60194,7 @@
     </row>
     <row r="377" spans="1:11">
       <c r="A377" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B377" t="s">
         <v>45</v>
@@ -60229,7 +60231,7 @@
     </row>
     <row r="378" spans="1:11">
       <c r="A378" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B378" t="s">
         <v>45</v>
@@ -60266,7 +60268,7 @@
     </row>
     <row r="379" spans="1:11">
       <c r="A379" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B379" t="s">
         <v>45</v>
@@ -60303,7 +60305,7 @@
     </row>
     <row r="380" spans="1:11">
       <c r="A380" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B380" t="s">
         <v>45</v>
@@ -60340,7 +60342,7 @@
     </row>
     <row r="381" spans="1:11">
       <c r="A381" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B381" t="s">
         <v>45</v>
@@ -60377,7 +60379,7 @@
     </row>
     <row r="382" spans="1:11">
       <c r="A382" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B382" t="s">
         <v>45</v>
@@ -60414,7 +60416,7 @@
     </row>
     <row r="383" spans="1:11">
       <c r="A383" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B383" t="s">
         <v>45</v>
@@ -60451,7 +60453,7 @@
     </row>
     <row r="384" spans="1:11">
       <c r="A384" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B384" t="s">
         <v>45</v>
@@ -60488,7 +60490,7 @@
     </row>
     <row r="385" spans="1:11">
       <c r="A385" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B385" t="s">
         <v>45</v>
@@ -60525,7 +60527,7 @@
     </row>
     <row r="386" spans="1:11">
       <c r="A386" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B386" t="s">
         <v>45</v>
@@ -60562,7 +60564,7 @@
     </row>
     <row r="387" spans="1:11">
       <c r="A387" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B387" t="s">
         <v>45</v>
@@ -60599,7 +60601,7 @@
     </row>
     <row r="388" spans="1:11">
       <c r="A388" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B388" t="s">
         <v>45</v>
@@ -60636,7 +60638,7 @@
     </row>
     <row r="389" spans="1:11">
       <c r="A389" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B389" t="s">
         <v>45</v>
@@ -60673,7 +60675,7 @@
     </row>
     <row r="390" spans="1:11">
       <c r="A390" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B390" t="s">
         <v>45</v>
@@ -60710,7 +60712,7 @@
     </row>
     <row r="391" spans="1:11">
       <c r="A391" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B391" t="s">
         <v>45</v>
@@ -60747,7 +60749,7 @@
     </row>
     <row r="392" spans="1:11">
       <c r="A392" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B392" t="s">
         <v>45</v>
@@ -60784,7 +60786,7 @@
     </row>
     <row r="393" spans="1:11">
       <c r="A393" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B393" t="s">
         <v>45</v>
@@ -60821,7 +60823,7 @@
     </row>
     <row r="394" spans="1:11">
       <c r="A394" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B394" t="s">
         <v>45</v>
@@ -60858,7 +60860,7 @@
     </row>
     <row r="395" spans="1:11">
       <c r="A395" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B395" t="s">
         <v>45</v>
@@ -60895,7 +60897,7 @@
     </row>
     <row r="396" spans="1:11">
       <c r="A396" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B396" t="s">
         <v>45</v>
@@ -60932,7 +60934,7 @@
     </row>
     <row r="397" spans="1:11">
       <c r="A397" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B397" t="s">
         <v>45</v>
@@ -60969,7 +60971,7 @@
     </row>
     <row r="398" spans="1:11">
       <c r="A398" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B398" t="s">
         <v>45</v>
@@ -61006,7 +61008,7 @@
     </row>
     <row r="399" spans="1:11">
       <c r="A399" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B399" t="s">
         <v>45</v>
@@ -61043,7 +61045,7 @@
     </row>
     <row r="400" spans="1:11">
       <c r="A400" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B400" t="s">
         <v>44</v>
@@ -61080,7 +61082,7 @@
     </row>
     <row r="401" spans="1:11">
       <c r="A401" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B401" t="s">
         <v>44</v>
@@ -61117,7 +61119,7 @@
     </row>
     <row r="402" spans="1:11">
       <c r="A402" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B402" t="s">
         <v>44</v>
@@ -61154,7 +61156,7 @@
     </row>
     <row r="403" spans="1:11">
       <c r="A403" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B403" t="s">
         <v>44</v>
@@ -61191,7 +61193,7 @@
     </row>
     <row r="404" spans="1:11">
       <c r="A404" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B404" t="s">
         <v>44</v>
@@ -61228,7 +61230,7 @@
     </row>
     <row r="405" spans="1:11">
       <c r="A405" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B405" t="s">
         <v>44</v>
@@ -61265,7 +61267,7 @@
     </row>
     <row r="406" spans="1:11">
       <c r="A406" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B406" t="s">
         <v>44</v>
@@ -61302,7 +61304,7 @@
     </row>
     <row r="407" spans="1:11">
       <c r="A407" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B407" t="s">
         <v>44</v>
@@ -61339,7 +61341,7 @@
     </row>
     <row r="408" spans="1:11">
       <c r="A408" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B408" t="s">
         <v>44</v>
@@ -61376,7 +61378,7 @@
     </row>
     <row r="409" spans="1:11">
       <c r="A409" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B409" t="s">
         <v>44</v>
@@ -61413,7 +61415,7 @@
     </row>
     <row r="410" spans="1:11">
       <c r="A410" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B410" t="s">
         <v>44</v>
@@ -61450,7 +61452,7 @@
     </row>
     <row r="411" spans="1:11">
       <c r="A411" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B411" t="s">
         <v>44</v>
@@ -61487,7 +61489,7 @@
     </row>
     <row r="412" spans="1:11">
       <c r="A412" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B412" t="s">
         <v>44</v>
@@ -61524,7 +61526,7 @@
     </row>
     <row r="413" spans="1:11">
       <c r="A413" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B413" t="s">
         <v>44</v>
@@ -61561,7 +61563,7 @@
     </row>
     <row r="414" spans="1:11">
       <c r="A414" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B414" t="s">
         <v>44</v>
@@ -61598,7 +61600,7 @@
     </row>
     <row r="415" spans="1:11">
       <c r="A415" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B415" t="s">
         <v>44</v>
@@ -61635,7 +61637,7 @@
     </row>
     <row r="416" spans="1:11">
       <c r="A416" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B416" t="s">
         <v>44</v>
@@ -61672,7 +61674,7 @@
     </row>
     <row r="417" spans="1:11">
       <c r="A417" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B417" t="s">
         <v>44</v>
@@ -61709,7 +61711,7 @@
     </row>
     <row r="418" spans="1:11">
       <c r="A418" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B418" t="s">
         <v>44</v>
@@ -61746,7 +61748,7 @@
     </row>
     <row r="419" spans="1:11">
       <c r="A419" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B419" t="s">
         <v>44</v>
@@ -61783,7 +61785,7 @@
     </row>
     <row r="420" spans="1:11">
       <c r="A420" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B420" t="s">
         <v>44</v>
@@ -61820,7 +61822,7 @@
     </row>
     <row r="421" spans="1:11">
       <c r="A421" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B421" t="s">
         <v>44</v>
@@ -61857,7 +61859,7 @@
     </row>
     <row r="422" spans="1:11">
       <c r="A422" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B422" t="s">
         <v>44</v>
@@ -61894,7 +61896,7 @@
     </row>
     <row r="423" spans="1:11">
       <c r="A423" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B423" t="s">
         <v>44</v>
@@ -61931,7 +61933,7 @@
     </row>
     <row r="424" spans="1:11">
       <c r="A424" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B424" t="s">
         <v>44</v>
@@ -61968,7 +61970,7 @@
     </row>
     <row r="425" spans="1:11">
       <c r="A425" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B425" t="s">
         <v>44</v>
@@ -62005,7 +62007,7 @@
     </row>
     <row r="426" spans="1:11">
       <c r="A426" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B426" t="s">
         <v>44</v>
@@ -62042,7 +62044,7 @@
     </row>
     <row r="427" spans="1:11">
       <c r="A427" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B427" t="s">
         <v>44</v>
@@ -62079,7 +62081,7 @@
     </row>
     <row r="428" spans="1:11">
       <c r="A428" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B428" t="s">
         <v>44</v>
@@ -62116,7 +62118,7 @@
     </row>
     <row r="429" spans="1:11">
       <c r="A429" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B429" t="s">
         <v>44</v>
@@ -62153,7 +62155,7 @@
     </row>
     <row r="430" spans="1:11">
       <c r="A430" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B430" t="s">
         <v>44</v>
@@ -62190,7 +62192,7 @@
     </row>
     <row r="431" spans="1:11">
       <c r="A431" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B431" t="s">
         <v>44</v>
@@ -62227,7 +62229,7 @@
     </row>
     <row r="432" spans="1:11">
       <c r="A432" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B432" t="s">
         <v>44</v>
@@ -62264,7 +62266,7 @@
     </row>
     <row r="433" spans="1:11">
       <c r="A433" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B433" t="s">
         <v>55</v>
@@ -62301,7 +62303,7 @@
     </row>
     <row r="434" spans="1:11">
       <c r="A434" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B434" t="s">
         <v>55</v>
@@ -62338,7 +62340,7 @@
     </row>
     <row r="435" spans="1:11">
       <c r="A435" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B435" t="s">
         <v>55</v>
@@ -62375,7 +62377,7 @@
     </row>
     <row r="436" spans="1:11">
       <c r="A436" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B436" t="s">
         <v>55</v>
@@ -62412,7 +62414,7 @@
     </row>
     <row r="437" spans="1:11">
       <c r="A437" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B437" t="s">
         <v>55</v>
@@ -62449,7 +62451,7 @@
     </row>
     <row r="438" spans="1:11">
       <c r="A438" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B438" t="s">
         <v>55</v>
@@ -62486,7 +62488,7 @@
     </row>
     <row r="439" spans="1:11">
       <c r="A439" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B439" t="s">
         <v>55</v>
@@ -62523,7 +62525,7 @@
     </row>
     <row r="440" spans="1:11">
       <c r="A440" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B440" t="s">
         <v>55</v>
@@ -62560,7 +62562,7 @@
     </row>
     <row r="441" spans="1:11">
       <c r="A441" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B441" t="s">
         <v>55</v>
@@ -62597,7 +62599,7 @@
     </row>
     <row r="442" spans="1:11">
       <c r="A442" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B442" t="s">
         <v>55</v>
@@ -62634,7 +62636,7 @@
     </row>
     <row r="443" spans="1:11">
       <c r="A443" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B443" t="s">
         <v>55</v>
@@ -62671,7 +62673,7 @@
     </row>
     <row r="444" spans="1:11">
       <c r="A444" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B444" t="s">
         <v>55</v>
@@ -62708,7 +62710,7 @@
     </row>
     <row r="445" spans="1:11">
       <c r="A445" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B445" t="s">
         <v>55</v>
@@ -62745,7 +62747,7 @@
     </row>
     <row r="446" spans="1:11">
       <c r="A446" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B446" t="s">
         <v>55</v>
@@ -62782,7 +62784,7 @@
     </row>
     <row r="447" spans="1:11">
       <c r="A447" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B447" t="s">
         <v>55</v>
@@ -62819,7 +62821,7 @@
     </row>
     <row r="448" spans="1:11">
       <c r="A448" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B448" t="s">
         <v>55</v>
@@ -62856,7 +62858,7 @@
     </row>
     <row r="449" spans="1:11">
       <c r="A449" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B449" t="s">
         <v>55</v>
@@ -62893,7 +62895,7 @@
     </row>
     <row r="450" spans="1:11">
       <c r="A450" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B450" t="s">
         <v>55</v>
@@ -62930,7 +62932,7 @@
     </row>
     <row r="451" spans="1:11">
       <c r="A451" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B451" t="s">
         <v>55</v>
@@ -62967,7 +62969,7 @@
     </row>
     <row r="452" spans="1:11">
       <c r="A452" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B452" t="s">
         <v>55</v>
@@ -63004,7 +63006,7 @@
     </row>
     <row r="453" spans="1:11">
       <c r="A453" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B453" t="s">
         <v>55</v>
@@ -63041,7 +63043,7 @@
     </row>
     <row r="454" spans="1:11">
       <c r="A454" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B454" t="s">
         <v>55</v>
@@ -63078,7 +63080,7 @@
     </row>
     <row r="455" spans="1:11">
       <c r="A455" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B455" t="s">
         <v>55</v>
@@ -63115,7 +63117,7 @@
     </row>
     <row r="456" spans="1:11">
       <c r="A456" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B456" t="s">
         <v>55</v>
@@ -63152,7 +63154,7 @@
     </row>
     <row r="457" spans="1:11">
       <c r="A457" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B457" t="s">
         <v>55</v>
@@ -63189,7 +63191,7 @@
     </row>
     <row r="458" spans="1:11">
       <c r="A458" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B458" t="s">
         <v>55</v>
@@ -63226,7 +63228,7 @@
     </row>
     <row r="459" spans="1:11">
       <c r="A459" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B459" t="s">
         <v>55</v>
@@ -63263,7 +63265,7 @@
     </row>
     <row r="460" spans="1:11">
       <c r="A460" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B460" t="s">
         <v>55</v>
@@ -63300,7 +63302,7 @@
     </row>
     <row r="461" spans="1:11">
       <c r="A461" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B461" t="s">
         <v>55</v>
@@ -63337,7 +63339,7 @@
     </row>
     <row r="462" spans="1:11">
       <c r="A462" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B462" t="s">
         <v>55</v>
@@ -63374,7 +63376,7 @@
     </row>
     <row r="463" spans="1:11">
       <c r="A463" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B463" t="s">
         <v>55</v>
@@ -63411,7 +63413,7 @@
     </row>
     <row r="464" spans="1:11">
       <c r="A464" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B464" t="s">
         <v>55</v>
@@ -63448,7 +63450,7 @@
     </row>
     <row r="465" spans="1:11">
       <c r="A465" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B465" t="s">
         <v>55</v>
@@ -67154,7 +67156,7 @@
         <v>177</v>
       </c>
       <c r="C565" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D565">
         <v>4</v>
@@ -69614,7 +69616,7 @@
         <v>0</v>
       </c>
       <c r="I631">
-        <f t="shared" ref="I631:I663" si="35">SUM(D631:H631)</f>
+        <f t="shared" ref="I631" si="35">SUM(D631:H631)</f>
         <v>49</v>
       </c>
       <c r="J631">
@@ -75691,7 +75693,7 @@
         <v>0</v>
       </c>
       <c r="K795">
-        <f t="shared" ref="K795:K827" si="45">I795+J795</f>
+        <f t="shared" ref="K795:K796" si="45">I795+J795</f>
         <v>135</v>
       </c>
     </row>
@@ -76905,7 +76907,7 @@
         <v>0</v>
       </c>
       <c r="I828">
-        <f t="shared" ref="I828:I859" si="47">SUM(D828:G828)</f>
+        <f t="shared" ref="I828" si="47">SUM(D828:G828)</f>
         <v>322</v>
       </c>
       <c r="J828">
@@ -80622,6 +80624,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="fff20438-b414-40cd-b54f-4096d4d01fe9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61cd099e-fda8-4d24-9efb-0d237bfa86c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9392D12F103F0459E6835886DD70153" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa44ecd952a20b6534e437948424f828">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="61cd099e-fda8-4d24-9efb-0d237bfa86c8" xmlns:ns3="fff20438-b414-40cd-b54f-4096d4d01fe9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e418edc231ea3e7c95437acbcc1c53b" ns2:_="" ns3:_="">
     <xsd:import namespace="61cd099e-fda8-4d24-9efb-0d237bfa86c8"/>
@@ -80858,34 +80880,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="fff20438-b414-40cd-b54f-4096d4d01fe9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="61cd099e-fda8-4d24-9efb-0d237bfa86c8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF57DDAB-929C-444B-BB8E-204C36C6EB6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73D945B3-49D5-4453-B455-D92F1CC8017E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fff20438-b414-40cd-b54f-4096d4d01fe9"/>
+    <ds:schemaRef ds:uri="61cd099e-fda8-4d24-9efb-0d237bfa86c8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{913DBF33-EA78-48F7-9BCF-87DDF57CCBFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{913DBF33-EA78-48F7-9BCF-87DDF57CCBFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73D945B3-49D5-4453-B455-D92F1CC8017E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF57DDAB-929C-444B-BB8E-204C36C6EB6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="61cd099e-fda8-4d24-9efb-0d237bfa86c8"/>
+    <ds:schemaRef ds:uri="fff20438-b414-40cd-b54f-4096d4d01fe9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>